--- a/Codelist Excel Files and Conversion Templates to XML/class-astmD2488.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/class-astmD2488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECB58F-B2ED-6642-B470-82E70F89CBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C5375-695D-EE48-81BB-E0667FAF706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="4380" windowWidth="35840" windowHeight="20900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>

--- a/Codelist Excel Files and Conversion Templates to XML/class-astmD2488.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/class-astmD2488.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C5375-695D-EE48-81BB-E0667FAF706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CC1A5-6AA9-3C49-8A6E-071C2076986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="3760" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="441">
   <si>
     <t>Description</t>
   </si>
@@ -755,9 +755,6 @@
     <t>Lean clay</t>
   </si>
   <si>
-    <t>Silty clay</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -842,12 +839,6 @@
     <t>Well-graded sand with silt</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Peat</t>
-  </si>
-  <si>
     <t>//diggs:Lithology/diggs:classificationCode</t>
   </si>
   <si>
@@ -887,24 +878,6 @@
     <t>Gravelly lean clay with sand</t>
   </si>
   <si>
-    <t>Silty clay with gravel</t>
-  </si>
-  <si>
-    <t>Silty clay with sand</t>
-  </si>
-  <si>
-    <t>Sandy silty clay</t>
-  </si>
-  <si>
-    <t>Sandy silty clay with gravel</t>
-  </si>
-  <si>
-    <t>Gravelly silty clay</t>
-  </si>
-  <si>
-    <t>Gravelly silty clay with sand</t>
-  </si>
-  <si>
     <t>Silt with gravel</t>
   </si>
   <si>
@@ -989,9 +962,6 @@
     <t>Clayey sand with gravel</t>
   </si>
   <si>
-    <t>Peat, muck, and other highly organic soils.</t>
-  </si>
-  <si>
     <t>GW with ≥ 15% sand</t>
   </si>
   <si>
@@ -1175,18 +1145,6 @@
     <t>Gravelly organic soil with sand</t>
   </si>
   <si>
-    <t>CL_CH</t>
-  </si>
-  <si>
-    <t>Lean to fat clay</t>
-  </si>
-  <si>
-    <t>ML_CL</t>
-  </si>
-  <si>
-    <t>CL_ML</t>
-  </si>
-  <si>
     <t>OL_OH</t>
   </si>
   <si>
@@ -1229,12 +1187,6 @@
     <t>sOL_OHg</t>
   </si>
   <si>
-    <t>CL_MLg</t>
-  </si>
-  <si>
-    <t>CL_MLs</t>
-  </si>
-  <si>
     <t>Well-graded gravel with clay and sand</t>
   </si>
   <si>
@@ -1247,99 +1199,6 @@
     <t xml:space="preserve">Well-graded sand with clay and gravel </t>
   </si>
   <si>
-    <t>Clayey silt</t>
-  </si>
-  <si>
-    <t>sCL_ML</t>
-  </si>
-  <si>
-    <t>sCL_MLg</t>
-  </si>
-  <si>
-    <t>gCL_ML</t>
-  </si>
-  <si>
-    <t>gCL_MLs</t>
-  </si>
-  <si>
-    <t>Lean to fat clay with gravel</t>
-  </si>
-  <si>
-    <t>Lean to fat clay with sand</t>
-  </si>
-  <si>
-    <t>Sandy lean to fat clay</t>
-  </si>
-  <si>
-    <t>CL_CHg</t>
-  </si>
-  <si>
-    <t>CL_CHs</t>
-  </si>
-  <si>
-    <t>sCL_CH</t>
-  </si>
-  <si>
-    <t>gCL_CH</t>
-  </si>
-  <si>
-    <t>sCL_CHg</t>
-  </si>
-  <si>
-    <t>gCL_CHs</t>
-  </si>
-  <si>
-    <t>Sandy lean to fat clay with gravel</t>
-  </si>
-  <si>
-    <t>Gravelly lean to fat clay with sand</t>
-  </si>
-  <si>
-    <t>Gravelly lean to  fat clay</t>
-  </si>
-  <si>
-    <t>ML_CLg</t>
-  </si>
-  <si>
-    <t>Clayey silt with gravel</t>
-  </si>
-  <si>
-    <t>ML_CLs</t>
-  </si>
-  <si>
-    <t>Clayey silt with sand</t>
-  </si>
-  <si>
-    <t>sML_CL</t>
-  </si>
-  <si>
-    <t>Sandy clayey silt</t>
-  </si>
-  <si>
-    <t>gML_CL</t>
-  </si>
-  <si>
-    <t>Gravelly clayey silt</t>
-  </si>
-  <si>
-    <t>sML_CLg</t>
-  </si>
-  <si>
-    <t>Sandy clayey silt with gravel</t>
-  </si>
-  <si>
-    <t>gML_CLs</t>
-  </si>
-  <si>
-    <t>Gravelly clayey silt with sand</t>
-  </si>
-  <si>
-    <t>Clay with borderline compressibility (CL/CH)</t>
-  </si>
-  <si>
-    <t>Silt bordering to clay (ML/CL)</t>
-  </si>
-  <si>
     <t>&gt; 85% fines; inorganic; high to very high dry strength; no dilatency; high plasticity</t>
   </si>
   <si>
@@ -1355,24 +1214,6 @@
     <t>CL with &gt;70-85% fines and % sand ≥ % gravel</t>
   </si>
   <si>
-    <t>CL/CH with &gt;70-85% fines and % sand &lt; % gravel</t>
-  </si>
-  <si>
-    <t>CL/CH with &gt;70-85% fines and % sand ≥ % gravel</t>
-  </si>
-  <si>
-    <t>CL/ML with &gt;70-85% fines and % sand &lt; % gravel</t>
-  </si>
-  <si>
-    <t>CL/ML with &gt;70-85% fines and % sand ≥ % gravel</t>
-  </si>
-  <si>
-    <t>ML/CL with &gt;70-85% fines and % sand &lt; % gravel</t>
-  </si>
-  <si>
-    <t>ML/CL with &gt;70-85% fines and % sand ≥ % gravel</t>
-  </si>
-  <si>
     <t>% gravel &gt; % sand; ≥15-&lt;50% fines; fines = CH or CL; &lt; 15% sand</t>
   </si>
   <si>
@@ -1388,12 +1229,6 @@
     <t>MH with &gt;70-85% fines and % sand ≥ % gravel</t>
   </si>
   <si>
-    <t>ML/CL with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; &lt; 15% sand</t>
-  </si>
-  <si>
-    <t>ML/CL with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; ≥ 15% sand</t>
-  </si>
-  <si>
     <t>MH with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; ≥ 15% sand</t>
   </si>
   <si>
@@ -1412,12 +1247,6 @@
     <t>CL with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; ≥ 15% sand</t>
   </si>
   <si>
-    <t>CL/CH with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; &lt; 15% sand</t>
-  </si>
-  <si>
-    <t>CL/CH with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; ≥ 15% sand</t>
-  </si>
-  <si>
     <t>OL/OH with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; &lt; 15% sand</t>
   </si>
   <si>
@@ -1430,24 +1259,12 @@
     <t>ML with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; ≥ 15% sand</t>
   </si>
   <si>
-    <t>CL/ML with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; &lt; 15% sand</t>
-  </si>
-  <si>
-    <t>CL/ML with ≥ 50% to ≤ 70% fines; % sand &lt; % gravel; ≥ 15% sand</t>
-  </si>
-  <si>
     <t>&gt; 85% fines; organic</t>
   </si>
   <si>
     <t>OL/OH with &gt;70-85% fines and % sand &lt; % gravel</t>
   </si>
   <si>
-    <t>ML/CL with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; &lt;15% gravel</t>
-  </si>
-  <si>
-    <t>ML/CL with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; ≥15% gravel</t>
-  </si>
-  <si>
     <t>MH with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; &lt;15% gravel</t>
   </si>
   <si>
@@ -1466,12 +1283,6 @@
     <t>CL with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; ≥15% gravel</t>
   </si>
   <si>
-    <t>CL/CH with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; &lt;15% gravel</t>
-  </si>
-  <si>
-    <t>CL/CH with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; ≥15% gravel</t>
-  </si>
-  <si>
     <t>OL/OH with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; &lt;15% gravel</t>
   </si>
   <si>
@@ -1484,12 +1295,6 @@
     <t>ML with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; ≥15% gravel</t>
   </si>
   <si>
-    <t>CL/ML with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; &lt;15% gravel</t>
-  </si>
-  <si>
-    <t>CL/ML with ≥ 50% to ≤ 70% fines; % sand &gt; % gravel; ≥15% gravel</t>
-  </si>
-  <si>
     <t>&gt; 85% fines; inorganic; none to low dry strength; slow to rapid dilatency; none to low plasticity</t>
   </si>
   <si>
@@ -1500,9 +1305,6 @@
   </si>
   <si>
     <t>ML with &gt;70-85% fines and % sand ≥ % gravel</t>
-  </si>
-  <si>
-    <t>Lean clay bordering to silt (CL/ML)</t>
   </si>
   <si>
     <t>% gravel &gt; % sand; ≥15-&lt;50% fines; fines = MH or ML; &lt; 15% sand</t>
@@ -1666,7 +1468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1691,8 +1493,14 @@
         <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1728,6 +1536,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1742,7 +1570,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1771,12 +1599,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1791,6 +1613,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2013,14 +1850,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H90" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H90">
-    <sortCondition ref="C1:C90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H68" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H68" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H68">
+    <sortCondition ref="C1:C68"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2812,1,FALSE)),"Not used","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2790,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
@@ -2035,14 +1872,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D90" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D90" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
-    <sortCondition ref="C1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D68" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D68" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
+    <sortCondition ref="B1:B68"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
@@ -2333,8 +2170,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2377,13 +2214,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2398,10 +2235,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2445,376 +2282,386 @@
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2815,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2793,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2902,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="13" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>324</v>
+        <v>295</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2829,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2807,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2911,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="13" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>332</v>
+        <v>306</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2907,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2802,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="13" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>402</v>
+        <v>251</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="E6" s="15"/>
+        <v>393</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2895,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
-        <v>419</v>
+        <v>342</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>285</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2896,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>286</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2824,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2790,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2863,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2817,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2864,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2819,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2812,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
-        <v>234</v>
+        <v>346</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B2821,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>271</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2898,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B2822,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>399</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G15" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B2827,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>429</v>
+        <v>334</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>430</v>
+        <v>277</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="E16" s="15"/>
+        <v>400</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G16" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2867,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B2828,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2823,560 +2670,574 @@
         <v/>
       </c>
       <c r="B18" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>451</v>
+        <v>364</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>402</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B2869,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>453</v>
+        <v>366</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>403</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B2839,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B2840,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B2791,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2892,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B2823,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="E23" s="15"/>
+        <v>389</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G23" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2894,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B2825,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="E24" s="15"/>
+        <v>390</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G24" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>375</v>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B2804,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2880,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>460</v>
+        <v>370</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>407</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2861,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B2854,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>292</v>
+        <v>373</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2862,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B2796,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2887,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B2797,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
-        <v>405</v>
+        <v>243</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="E29" s="15"/>
+        <v>430</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G29" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>375</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G30" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2813,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B2874,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B2798,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>436</v>
+        <v>292</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>429</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>437</v>
+        <v>293</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2906,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B2810,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E34" s="15"/>
+        <v>303</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G34" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2889,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B2811,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
-        <v>410</v>
+        <v>259</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E35" s="15"/>
+        <v>376</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G35" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2890,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B2887,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="E36" s="15"/>
+        <v>377</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G36" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2826,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>383</v>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B2883,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>465</v>
+        <v>316</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2869,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B2812,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
-        <v>385</v>
+        <v>260</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>466</v>
+        <v>304</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>497</v>
+        <v>301</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>316</v>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>408</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B2818,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3385,1160 +3246,646 @@
         <v/>
       </c>
       <c r="B42" s="13" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B2820,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>322</v>
+        <v>270</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B2896,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B2825,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B2820,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B2826,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2900,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>302</v>
+        <v>378</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B2832,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B2856,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>493</v>
+        <v>380</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B2833,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>390</v>
+        <v>281</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B2909,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B2838,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>330</v>
+        <v>282</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B2905,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B2803,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B2834,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B2908,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>329</v>
+        <v>280</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B2897,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B2795,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
-        <v>423</v>
+        <v>240</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>424</v>
+        <v>241</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="E53" s="15"/>
+        <v>422</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G53" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B2899,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B2879,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>428</v>
+        <v>294</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="E54" s="15"/>
+        <v>313</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G54" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B2865,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B2809,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B2866,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B2888,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>470</v>
+        <v>305</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B2799,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B2800,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>278</v>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B2876,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>382</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B2873,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>474</v>
+        <v>299</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>307</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B2891,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B2801,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
-        <v>412</v>
+        <v>248</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>409</v>
+        <v>249</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E61" s="15"/>
+        <v>424</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G61" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B2893,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="E62" s="15"/>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B2875,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B62" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G62" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B2877,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B2813,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>477</v>
+        <v>262</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B2878,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B2814,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B2859,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B2885,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>479</v>
+        <v>385</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B2860,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B2882,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>480</v>
+        <v>356</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B2885,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B2815,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="E67" s="15"/>
+        <v>264</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G67" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B2886,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B2884,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="E68" s="15"/>
+        <v>358</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="G68" s="15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B2825,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B2857,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B2858,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B2908,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="G72" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B2851,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B2852,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B2817,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B2901,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B2831,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B2910,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B2821,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B2822,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B2898,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B81" t="s">
-        <v>361</v>
-      </c>
-      <c r="C81" t="s">
-        <v>398</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B2895,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B2823,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B2897,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B84" t="s">
-        <v>360</v>
-      </c>
-      <c r="C84" t="s">
-        <v>307</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B2835,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B2836,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B2907,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B2904,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B2837,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B2906,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4555,13 +3902,13 @@
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F90</xm:sqref>
+          <xm:sqref>F2:F68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'/Users/dponti/GitHub/diggs-dictionaries/[DIGGSDictionaryClassificationCodeASTMD2487.xlsx]Lists'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E90</xm:sqref>
+          <xm:sqref>E2:E68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4572,11 +3919,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4603,1070 +3950,806 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B2" s="13" t="s">
         <v>234</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>236</v>
+        <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>239</v>
+        <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B5" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>243</v>
+        <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>244</v>
+        <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>246</v>
+        <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>248</v>
+        <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>249</v>
+        <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>251</v>
+        <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>253</v>
+        <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>267</v>
+        <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>255</v>
+        <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>257</v>
+        <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>259</v>
+        <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>260</v>
+        <f>IF(ISNA(VLOOKUP(B18,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>261</v>
+        <f>IF(ISNA(VLOOKUP(B19,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>262</v>
+        <f>IF(ISNA(VLOOKUP(B20,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>264</v>
+        <f>IF(ISNA(VLOOKUP(B21,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>334</v>
+        <f>IF(ISNA(VLOOKUP(B23,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>335</v>
+        <f>IF(ISNA(VLOOKUP(B24,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>336</v>
+        <f>IF(ISNA(VLOOKUP(B25,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>337</v>
+        <f>IF(ISNA(VLOOKUP(B26,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>338</v>
+        <f>IF(ISNA(VLOOKUP(B27,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>339</v>
+        <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>340</v>
+        <f>IF(ISNA(VLOOKUP(B29,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>341</v>
+        <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>342</v>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>343</v>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>344</v>
+        <f>IF(ISNA(VLOOKUP(B33,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>345</v>
+        <f>IF(ISNA(VLOOKUP(B34,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>346</v>
+        <f>IF(ISNA(VLOOKUP(B35,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>347</v>
+        <f>IF(ISNA(VLOOKUP(B36,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>348</v>
+        <f>IF(ISNA(VLOOKUP(B37,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>349</v>
+        <f>IF(ISNA(VLOOKUP(B38,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>350</v>
+        <f>IF(ISNA(VLOOKUP(B39,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>351</v>
+        <f>IF(ISNA(VLOOKUP(B40,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>352</v>
+        <f>IF(ISNA(VLOOKUP(B41,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>371</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>353</v>
+        <f>IF(ISNA(VLOOKUP(B42,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>354</v>
+        <f>IF(ISNA(VLOOKUP(B43,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>355</v>
+        <f>IF(ISNA(VLOOKUP(B44,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>356</v>
+        <f>IF(ISNA(VLOOKUP(B45,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>357</v>
+        <f>IF(ISNA(VLOOKUP(B46,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>358</v>
+        <f>IF(ISNA(VLOOKUP(B47,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>359</v>
+        <f>IF(ISNA(VLOOKUP(B48,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>360</v>
+        <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>361</v>
+        <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>362</v>
+        <f>IF(ISNA(VLOOKUP(B51,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>363</v>
+        <f>IF(ISNA(VLOOKUP(B52,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>364</v>
+        <f>IF(ISNA(VLOOKUP(B53,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>365</v>
+        <f>IF(ISNA(VLOOKUP(B54,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>366</v>
+        <f>IF(ISNA(VLOOKUP(B55,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>367</v>
+        <f>IF(ISNA(VLOOKUP(B56,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>368</v>
+        <f>IF(ISNA(VLOOKUP(B57,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>369</v>
+        <f>IF(ISNA(VLOOKUP(B58,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>370</v>
+        <f>IF(ISNA(VLOOKUP(B59,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>371</v>
+        <f>IF(ISNA(VLOOKUP(B60,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>372</v>
+        <f>IF(ISNA(VLOOKUP(B61,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>373</v>
+        <f>IF(ISNA(VLOOKUP(B62,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>374</v>
+        <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>376</v>
+        <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>382</v>
+        <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>385</v>
+        <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>386</v>
+        <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>392</v>
+        <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1803,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1828,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
